--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam11-Itga4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="H2">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="I2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="J2">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.11856255448</v>
+        <v>0.1259911735324444</v>
       </c>
       <c r="R2">
-        <v>1.06706299032</v>
+        <v>1.133920561792</v>
       </c>
       <c r="S2">
-        <v>0.0009161172321451838</v>
+        <v>0.001108223882341711</v>
       </c>
       <c r="T2">
-        <v>0.0009161172321451836</v>
+        <v>0.001108223882341711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="H3">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="I3">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="J3">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.09944218578844442</v>
+        <v>0.08559714272711109</v>
       </c>
       <c r="R3">
-        <v>0.8949796720959998</v>
+        <v>0.770374284544</v>
       </c>
       <c r="S3">
-        <v>0.00076837666329418</v>
+        <v>0.0007529162176266947</v>
       </c>
       <c r="T3">
-        <v>0.00076837666329418</v>
+        <v>0.0007529162176266949</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="H4">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="I4">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="J4">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>0.625144109616</v>
+        <v>0.2806000770773333</v>
       </c>
       <c r="R4">
-        <v>5.626296986543999</v>
+        <v>2.525400693696</v>
       </c>
       <c r="S4">
-        <v>0.00483040614218449</v>
+        <v>0.002468170571678556</v>
       </c>
       <c r="T4">
-        <v>0.004830406142184489</v>
+        <v>0.002468170571678557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3112613333333333</v>
+        <v>0.2679253333333333</v>
       </c>
       <c r="H5">
-        <v>0.9337839999999999</v>
+        <v>0.8037759999999999</v>
       </c>
       <c r="I5">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="J5">
-        <v>0.1380581838428943</v>
+        <v>0.1226600350746756</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>17.02413971203289</v>
+        <v>13.45272112434489</v>
       </c>
       <c r="R5">
-        <v>153.217257408296</v>
+        <v>121.074490119104</v>
       </c>
       <c r="S5">
-        <v>0.1315432838052704</v>
+        <v>0.1183307244030286</v>
       </c>
       <c r="T5">
-        <v>0.1315432838052704</v>
+        <v>0.1183307244030287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>2.143456</v>
       </c>
       <c r="I6">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="J6">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>0.27215460832</v>
+        <v>0.3359848227057777</v>
       </c>
       <c r="R6">
-        <v>2.44939147488</v>
+        <v>3.023863404352</v>
       </c>
       <c r="S6">
-        <v>0.002102902789022929</v>
+        <v>0.002955337220753834</v>
       </c>
       <c r="T6">
-        <v>0.002102902789022929</v>
+        <v>0.002955337220753835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.143456</v>
       </c>
       <c r="I7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="J7">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
         <v>0.2282647269404444</v>
@@ -883,10 +883,10 @@
         <v>2.054382542464</v>
       </c>
       <c r="S7">
-        <v>0.001763771460206953</v>
+        <v>0.002007826538947723</v>
       </c>
       <c r="T7">
-        <v>0.001763771460206953</v>
+        <v>0.002007826538947723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.143456</v>
       </c>
       <c r="I8">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="J8">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>1.434988062144</v>
+        <v>0.7482854909973333</v>
       </c>
       <c r="R8">
-        <v>12.914892559296</v>
+        <v>6.734569418976</v>
       </c>
       <c r="S8">
-        <v>0.01108796362745795</v>
+        <v>0.006581951962845161</v>
       </c>
       <c r="T8">
-        <v>0.01108796362745795</v>
+        <v>0.006581951962845162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.143456</v>
       </c>
       <c r="I9">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="J9">
-        <v>0.3169058824172986</v>
+        <v>0.327101565785771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>39.07808916258489</v>
+        <v>35.87481563309156</v>
       </c>
       <c r="R9">
-        <v>351.702802463264</v>
+        <v>322.8733406978241</v>
       </c>
       <c r="S9">
-        <v>0.3019512445406107</v>
+        <v>0.3155564500632242</v>
       </c>
       <c r="T9">
-        <v>0.3019512445406108</v>
+        <v>0.3155564500632243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="H10">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="I10">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="J10">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>0.4548993550700001</v>
+        <v>0.5385255218931111</v>
       </c>
       <c r="R10">
-        <v>4.09409419563</v>
+        <v>4.846729697038</v>
       </c>
       <c r="S10">
-        <v>0.003514947361746128</v>
+        <v>0.004736894084558976</v>
       </c>
       <c r="T10">
-        <v>0.003514947361746127</v>
+        <v>0.004736894084558976</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="H11">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="I11">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="J11">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>0.3815385589515555</v>
+        <v>0.3658688515017778</v>
       </c>
       <c r="R11">
-        <v>3.433847030563999</v>
+        <v>3.292819663516001</v>
       </c>
       <c r="S11">
-        <v>0.002948098158953913</v>
+        <v>0.003218198447328459</v>
       </c>
       <c r="T11">
-        <v>0.002948098158953913</v>
+        <v>0.003218198447328459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="H12">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="I12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="J12">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>2.398545253494</v>
+        <v>1.199372136274333</v>
       </c>
       <c r="R12">
-        <v>21.586907281446</v>
+        <v>10.794349226469</v>
       </c>
       <c r="S12">
-        <v>0.01853324304999312</v>
+        <v>0.01054972985779939</v>
       </c>
       <c r="T12">
-        <v>0.01853324304999312</v>
+        <v>0.01054972985779939</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.194243666666667</v>
+        <v>1.145196333333333</v>
       </c>
       <c r="H13">
-        <v>3.582731</v>
+        <v>3.435589</v>
       </c>
       <c r="I13">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="J13">
-        <v>0.529699946730332</v>
+        <v>0.5242871984759059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>65.31801047633212</v>
+        <v>57.50112060433123</v>
       </c>
       <c r="R13">
-        <v>587.862094286989</v>
+        <v>517.5100854389812</v>
       </c>
       <c r="S13">
-        <v>0.5047036581596389</v>
+        <v>0.505782376086219</v>
       </c>
       <c r="T13">
-        <v>0.5047036581596389</v>
+        <v>0.505782376086219</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="H14">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="I14">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="J14">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.01317034416</v>
+        <v>0.02665597009</v>
       </c>
       <c r="R14">
-        <v>0.11853309744</v>
+        <v>0.23990373081</v>
       </c>
       <c r="S14">
-        <v>0.0001017655134977207</v>
+        <v>0.0002344670807682982</v>
       </c>
       <c r="T14">
-        <v>0.0001017655134977207</v>
+        <v>0.0002344670807682982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="H15">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="I15">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="J15">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.01104638658133333</v>
+        <v>0.01810979938</v>
       </c>
       <c r="R15">
-        <v>0.09941747923199999</v>
+        <v>0.16298819442</v>
       </c>
       <c r="S15">
-        <v>8.535397322097905E-05</v>
+        <v>0.0001592945887766089</v>
       </c>
       <c r="T15">
-        <v>8.535397322097905E-05</v>
+        <v>0.0001592945887766089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="H16">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="I16">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="J16">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>0.069443199072</v>
+        <v>0.059366597295</v>
       </c>
       <c r="R16">
-        <v>0.6249887916479999</v>
+        <v>0.5342993756550001</v>
       </c>
       <c r="S16">
-        <v>0.0005365784467462634</v>
+        <v>0.000522191190787977</v>
       </c>
       <c r="T16">
-        <v>0.0005365784467462633</v>
+        <v>0.000522191190787977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.034576</v>
+        <v>0.05668500000000001</v>
       </c>
       <c r="H17">
-        <v>0.103728</v>
+        <v>0.170055</v>
       </c>
       <c r="I17">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="J17">
-        <v>0.01533598700947514</v>
+        <v>0.02595120066364754</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>1.891101115514667</v>
+        <v>2.846194077455001</v>
       </c>
       <c r="R17">
-        <v>17.019910039632</v>
+        <v>25.61574669709501</v>
       </c>
       <c r="S17">
-        <v>0.01461228907601018</v>
+        <v>0.02503524780331465</v>
       </c>
       <c r="T17">
-        <v>0.01461228907601018</v>
+        <v>0.02503524780331465</v>
       </c>
     </row>
   </sheetData>
